--- a/examples/Utopia2_planning_single_node_DN/sets/reg1.xlsx
+++ b/examples/Utopia2_planning_single_node_DN/sets/reg1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE2757E-A19D-944D-82C1-1C12E228A46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8808"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Technology</t>
   </si>
@@ -33,25 +34,10 @@
     <t>Carrier</t>
   </si>
   <si>
-    <t>Elec</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
     <t>Carr_name</t>
   </si>
   <si>
     <t>Tech_category</t>
-  </si>
-  <si>
-    <t>Supply</t>
-  </si>
-  <si>
-    <t>Conversion</t>
-  </si>
-  <si>
-    <t>Transmission</t>
   </si>
   <si>
     <t>Carrier_in</t>
@@ -62,98 +48,11 @@
   <si>
     <t>Carr_type</t>
   </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <t>Hydro_PP</t>
-  </si>
-  <si>
-    <t>Hydro Power Plant</t>
-  </si>
-  <si>
-    <t>Intermediate</t>
-  </si>
-  <si>
-    <t>Elec_transmission</t>
-  </si>
-  <si>
-    <t>Elec_final</t>
-  </si>
-  <si>
-    <t>Final Electricity</t>
-  </si>
-  <si>
-    <t>Oil_extr</t>
-  </si>
-  <si>
-    <t>Oil Resource Extraction</t>
-  </si>
-  <si>
-    <t>Oil_refine</t>
-  </si>
-  <si>
-    <t>Oil Refinery</t>
-  </si>
-  <si>
-    <t>Oil_PP</t>
-  </si>
-  <si>
-    <t>Oil Power Plant</t>
-  </si>
-  <si>
-    <t>Electricity Transmission Line</t>
-  </si>
-  <si>
-    <t>Diesel_pipeline</t>
-  </si>
-  <si>
-    <t>Diesel Pipeline</t>
-  </si>
-  <si>
-    <t>EV</t>
-  </si>
-  <si>
-    <t>Electric Vehicles Demand</t>
-  </si>
-  <si>
-    <t>ICEV</t>
-  </si>
-  <si>
-    <t>ICE Vehicles Demand</t>
-  </si>
-  <si>
-    <t>HH_elec_demand</t>
-  </si>
-  <si>
-    <t>Household Elecricity Demand</t>
-  </si>
-  <si>
-    <t>Other_elec_demand</t>
-  </si>
-  <si>
-    <t>Other Electricity Demand</t>
-  </si>
-  <si>
-    <t>Raw Oil</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>Oil_final</t>
-  </si>
-  <si>
-    <t>Final Diesel Oil</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,7 +210,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -328,7 +229,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -340,6 +243,39 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -359,30 +295,135 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -463,22 +504,22 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -497,153 +538,11 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="Table Style 3" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="0"/>
-    <tableStyle name="Table Style 2" pivot="0" count="0"/>
-    <tableStyle name="Table Style 3" pivot="0" count="0"/>
+    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
+    <tableStyle name="Table Style 2" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}"/>
+    <tableStyle name="Table Style 3" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -657,46 +556,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Technologies" displayName="Technologies" ref="A1:C11" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Technologies" displayName="Technologies" ref="A1:C11" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" name="Technology" dataDxfId="9"/>
-    <tableColumn id="3" name="Tech_name" dataDxfId="8"/>
-    <tableColumn id="4" name="Tech_category" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Technology" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tech_name" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tech_category" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Carriers" displayName="Carriers" ref="A13:C18" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
-  <autoFilter ref="A13:C18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Carriers" displayName="Carriers" ref="A13:C18" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A13:C18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" name="Carrier" dataDxfId="2"/>
-    <tableColumn id="3" name="Carr_name" dataDxfId="1"/>
-    <tableColumn id="1" name="Carr_type" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Carrier" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Carr_name" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Carr_type" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Carrier_input" displayName="Carrier_input" ref="A22:B30" totalsRowShown="0" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="A22:B30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Carrier_input" displayName="Carrier_input" ref="A22:B30" totalsRowShown="0" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A22:B30" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="Technology" dataDxfId="21"/>
-    <tableColumn id="3" name="Carrier_in" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Technology" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Carrier_in" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Carrier_output" displayName="Carrier_output" ref="A36:B42" totalsRowShown="0" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
-  <autoFilter ref="A36:B42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Carrier_output" displayName="Carrier_output" ref="A36:B42" totalsRowShown="0" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A36:B42" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="Technology" dataDxfId="15"/>
-    <tableColumn id="3" name="Carrier_out" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Technology" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Carrier_out" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -964,26 +863,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A37" sqref="A37:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
-    <col min="2" max="2" width="33.83984375" customWidth="1"/>
-    <col min="3" max="3" width="24.62890625" customWidth="1"/>
-    <col min="4" max="4" width="21.05078125" customWidth="1"/>
-    <col min="5" max="5" width="13.1015625" customWidth="1"/>
-    <col min="6" max="6" width="17.20703125" customWidth="1"/>
-    <col min="8" max="8" width="18.734375" customWidth="1"/>
-    <col min="13" max="13" width="16.26171875" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -991,318 +890,172 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>40</v>
-      </c>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples/Utopia2_planning_single_node_DN/sets/reg1.xlsx
+++ b/examples/Utopia2_planning_single_node_DN/sets/reg1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE2757E-A19D-944D-82C1-1C12E228A46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8808"/>
   </bookViews>
   <sheets>
     <sheet name="Sets" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t>Technology</t>
   </si>
@@ -34,12 +33,27 @@
     <t>Carrier</t>
   </si>
   <si>
+    <t>Elec</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
     <t>Carr_name</t>
   </si>
   <si>
     <t>Tech_category</t>
   </si>
   <si>
+    <t>Supply</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
     <t>Carrier_in</t>
   </si>
   <si>
@@ -47,12 +61,99 @@
   </si>
   <si>
     <t>Carr_type</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Hydro_PP</t>
+  </si>
+  <si>
+    <t>Hydro Power Plant</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Elec_transmission</t>
+  </si>
+  <si>
+    <t>Elec_final</t>
+  </si>
+  <si>
+    <t>Final Electricity</t>
+  </si>
+  <si>
+    <t>Oil_extr</t>
+  </si>
+  <si>
+    <t>Oil Resource Extraction</t>
+  </si>
+  <si>
+    <t>Oil_refine</t>
+  </si>
+  <si>
+    <t>Oil Refinery</t>
+  </si>
+  <si>
+    <t>Oil_PP</t>
+  </si>
+  <si>
+    <t>Oil Power Plant</t>
+  </si>
+  <si>
+    <t>Electricity Transmission Line</t>
+  </si>
+  <si>
+    <t>Diesel_pipeline</t>
+  </si>
+  <si>
+    <t>Diesel Pipeline</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Electric Vehicles Demand</t>
+  </si>
+  <si>
+    <t>ICEV</t>
+  </si>
+  <si>
+    <t>ICE Vehicles Demand</t>
+  </si>
+  <si>
+    <t>HH_elec_demand</t>
+  </si>
+  <si>
+    <t>Household Elecricity Demand</t>
+  </si>
+  <si>
+    <t>Other_elec_demand</t>
+  </si>
+  <si>
+    <t>Other Electricity Demand</t>
+  </si>
+  <si>
+    <t>Raw Oil</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Oil_final</t>
+  </si>
+  <si>
+    <t>Final Diesel Oil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,9 +311,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -229,9 +328,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -240,39 +337,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -295,14 +359,55 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -311,39 +416,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -369,7 +441,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -378,6 +452,49 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -400,55 +517,14 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -457,6 +533,39 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -465,7 +574,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -519,30 +630,20 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="Table Style 3" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
-    <tableStyle name="Table Style 2" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}"/>
-    <tableStyle name="Table Style 3" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}"/>
+    <tableStyle name="Table Style 1" pivot="0" count="0"/>
+    <tableStyle name="Table Style 2" pivot="0" count="0"/>
+    <tableStyle name="Table Style 3" pivot="0" count="0"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -556,46 +657,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Technologies" displayName="Technologies" ref="A1:C11" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Technologies" displayName="Technologies" ref="A1:C11" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Technology" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tech_name" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tech_category" dataDxfId="19"/>
+    <tableColumn id="2" name="Technology" dataDxfId="9"/>
+    <tableColumn id="3" name="Tech_name" dataDxfId="8"/>
+    <tableColumn id="4" name="Tech_category" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Carriers" displayName="Carriers" ref="A13:C18" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A13:C18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Carriers" displayName="Carriers" ref="A13:C18" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A13:C18"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Carrier" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Carr_name" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Carr_type" dataDxfId="12"/>
+    <tableColumn id="2" name="Carrier" dataDxfId="2"/>
+    <tableColumn id="3" name="Carr_name" dataDxfId="1"/>
+    <tableColumn id="1" name="Carr_type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Carrier_input" displayName="Carrier_input" ref="A22:B30" totalsRowShown="0" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A22:B30" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Carrier_input" displayName="Carrier_input" ref="A22:B30" totalsRowShown="0" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="A22:B30"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Technology" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Carrier_in" dataDxfId="6"/>
+    <tableColumn id="2" name="Technology" dataDxfId="21"/>
+    <tableColumn id="3" name="Carrier_in" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Carrier_output" displayName="Carrier_output" ref="A36:B42" totalsRowShown="0" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A36:B42" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Carrier_output" displayName="Carrier_output" ref="A36:B42" totalsRowShown="0" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="A36:B42"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Technology" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Carrier_out" dataDxfId="0"/>
+    <tableColumn id="2" name="Technology" dataDxfId="15"/>
+    <tableColumn id="3" name="Carrier_out" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -863,26 +964,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B42"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="2" max="2" width="33.83984375" customWidth="1"/>
+    <col min="3" max="3" width="24.62890625" customWidth="1"/>
+    <col min="4" max="4" width="21.05078125" customWidth="1"/>
+    <col min="5" max="5" width="13.1015625" customWidth="1"/>
+    <col min="6" max="6" width="17.20703125" customWidth="1"/>
+    <col min="8" max="8" width="18.734375" customWidth="1"/>
+    <col min="13" max="13" width="16.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -890,172 +991,318 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1066,4 +1313,254 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100241E96938535DD4B921FCDFB54345D30" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2dfcd6e708d07654f9ef039e0eb4800">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e" xmlns:ns3="e67e9a88-35e1-4b39-8da9-a609eb308282" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d0e77208158cc8ba8661a0337015ee0" ns2:_="" ns3:_="">
+    <xsd:import namespace="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e"/>
+    <xsd:import namespace="e67e9a88-35e1-4b39-8da9-a609eb308282"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5d44ae6a-e145-4c9d-94e7-ddf9cc58067e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e67e9a88-35e1-4b39-8da9-a609eb308282" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0E65D74-8703-4285-B704-4883F17D458C}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55F9224C-7640-455F-8D3F-907B8858BE4A}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60DEEF41-2CC3-4CCF-A664-3C338D2476D3}"/>
 </file>